--- a/testData/application_test_data.xlsx
+++ b/testData/application_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="add_app" sheetId="2" r:id="rId1"/>
@@ -15,22 +15,13 @@
     <sheet name="add_account" sheetId="6" r:id="rId6"/>
     <sheet name="edit_account" sheetId="9" r:id="rId7"/>
     <sheet name="del_account" sheetId="10" r:id="rId8"/>
-    <sheet name="Sheet4" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="96">
-  <si>
-    <t>测试点说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="98">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请输入端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.10.241</t>
   </si>
   <si>
@@ -142,26 +129,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请输入连接用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>口令为空的校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请输入口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>确认口令为空的校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>两次口令输入不一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>两次口令不一致的校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,18 +146,6 @@
   </si>
   <si>
     <t>用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用发布已存在的校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该名称已经存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -368,42 +331,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">test_F06_S09_T11_addaccount_007
+    <t>app_server2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hH@1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root.123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root.124</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加普通账号不绑定用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定的用户6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点说明0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原名称2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接用户名6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令确认8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">test_F06_S09_T11_addaccount_006
 </t>
-  </si>
-  <si>
-    <t>app_server2003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hH@1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root.123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root.124</t>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加普通账号不绑定用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定的用户6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除账号3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -489,15 +497,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -509,11 +508,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -527,7 +530,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -543,9 +546,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -555,31 +555,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -587,6 +566,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -894,82 +888,85 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="42.25" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="24.75" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="17.875" customWidth="1"/>
+    <col min="10" max="10" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>10</v>
+      <c r="J1" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="1">
         <v>3389</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -980,186 +977,186 @@
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1173,84 +1170,88 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="50.5" customWidth="1"/>
-    <col min="2" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="8" max="8" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="9.75" customWidth="1"/>
+    <col min="11" max="11" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>10</v>
+        <v>92</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1286,7 +1287,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1303,296 +1304,308 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="36.25" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="36.25" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
     <col min="6" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="35.125" customWidth="1"/>
-    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>10</v>
+      <c r="J1" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>62</v>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>23</v>
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>62</v>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>23</v>
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>62</v>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
-        <v>23</v>
+      <c r="D5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>62</v>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
         <v>3389</v>
       </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
-        <v>62</v>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
+      <c r="D7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1">
         <v>3389</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>23</v>
+      <c r="F7" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="J7" t="s">
-        <v>62</v>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="A8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E8">
+      <c r="D8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1">
         <v>3389</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>23</v>
+      <c r="F8" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
-        <v>62</v>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3389</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
+      <c r="E10" s="1">
         <v>3389</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="12">
+      <c r="F10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="5">
         <v>1</v>
       </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10">
-        <v>3389</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>62</v>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1607,62 +1620,64 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>74</v>
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1676,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1687,37 +1702,35 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="10" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1730,121 +1743,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="20.125" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="7" width="20.75" customWidth="1"/>
-    <col min="8" max="8" width="27.75" customWidth="1"/>
+    <col min="6" max="6" width="20.75" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>88</v>
+        <v>70</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>78</v>
+        <v>35</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>90</v>
+        <v>77</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
+        <v>82</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="18" t="s">
-        <v>78</v>
+      <c r="H4" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1863,62 +1877,66 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="7" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="54">
-      <c r="A2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="18" t="s">
-        <v>82</v>
+      <c r="H2" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1931,240 +1949,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3">
-        <v>3389</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>3389</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>3389</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>3389</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>3389</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="12">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="12"/>
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/testData/application_test_data.xlsx
+++ b/testData/application_test_data.xlsx
@@ -350,10 +350,6 @@
     <t>root.124</t>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加普通账号不绑定用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,6 +408,10 @@
   </si>
   <si>
     <t>删除账号3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrapp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,6 +448,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -888,7 +889,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -907,10 +908,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
@@ -1190,34 +1191,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>8</v>
@@ -1322,10 +1323,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>9</v>
@@ -1620,7 +1621,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1632,10 +1633,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
@@ -1707,10 +1708,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>9</v>
@@ -1744,7 +1745,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1761,10 +1762,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
@@ -1779,7 +1780,7 @@
         <v>34</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>31</v>
@@ -1831,15 +1832,15 @@
         <v>81</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -1893,10 +1894,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
@@ -1928,7 +1929,7 @@
         <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>36</v>
@@ -1950,7 +1951,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1964,16 +1965,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>

--- a/testData/application_test_data.xlsx
+++ b/testData/application_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="add_app" sheetId="2" r:id="rId1"/>
@@ -209,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请输入IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>asd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,6 +408,10 @@
   </si>
   <si>
     <t>gyrapp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -908,10 +908,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
@@ -964,10 +964,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1191,34 +1191,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>8</v>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1305,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1323,10 +1323,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>9</v>
@@ -1358,7 +1358,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1416,14 +1416,14 @@
         <v>46</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>21</v>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1444,7 +1444,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>22</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1472,7 +1472,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>22</v>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1500,7 +1500,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>22</v>
@@ -1518,7 +1518,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1526,7 +1526,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>22</v>
@@ -1546,7 +1546,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1554,7 +1554,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>22</v>
@@ -1576,15 +1576,15 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1633,10 +1633,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
@@ -1647,38 +1647,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1708,10 +1708,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>9</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>30</v>
@@ -1731,7 +1731,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1762,10 +1762,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
@@ -1780,7 +1780,7 @@
         <v>34</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>31</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1797,69 +1797,69 @@
         <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1894,10 +1894,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
@@ -1926,10 +1926,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>36</v>
@@ -1937,7 +1937,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1950,7 +1950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1965,16 +1965,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
@@ -1988,13 +1988,13 @@
         <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
